--- a/b_list_8.xlsx
+++ b/b_list_8.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6318,11 +6318,21 @@
       <c r="C226" t="n">
         <v>224828</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>19355</v>
+      </c>
+      <c r="E226" t="n">
+        <v>46290951</v>
+      </c>
+      <c r="F226" t="n">
+        <v>31490585000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>75315377277000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.03999999910593033</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -6332,13 +6342,29 @@
         <v>1651000</v>
       </c>
       <c r="C227" t="n">
-        <v>112416</v>
+        <v>115530</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1646000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>62049</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6351,7 +6377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12235,11 +12261,21 @@
       <c r="C226" t="n">
         <v>466759</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>2900190</v>
+      </c>
+      <c r="E226" t="n">
+        <v>230960969</v>
+      </c>
+      <c r="F226" t="n">
+        <v>529284675000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>42150376842500</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.259999990463257</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -12256,6 +12292,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>185200</v>
+      </c>
+      <c r="C228" t="n">
+        <v>379089</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12268,7 +12320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18152,11 +18204,21 @@
       <c r="C226" t="n">
         <v>324435</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>613551</v>
+      </c>
+      <c r="E226" t="n">
+        <v>78313250</v>
+      </c>
+      <c r="F226" t="n">
+        <v>79148079000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>10102409250000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.7799999713897705</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -18173,6 +18235,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>139100</v>
+      </c>
+      <c r="C228" t="n">
+        <v>433351</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18185,7 +18263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24069,11 +24147,21 @@
       <c r="C226" t="n">
         <v>426092</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>1288796</v>
+      </c>
+      <c r="E226" t="n">
+        <v>52240638</v>
+      </c>
+      <c r="F226" t="n">
+        <v>54967149400</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2228063210700</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2.470000028610229</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -24090,6 +24178,22 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>45000</v>
+      </c>
+      <c r="C228" t="n">
+        <v>438258</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24102,7 +24206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25904,11 +26008,21 @@
       <c r="C69" t="n">
         <v>2784512</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="D69" t="n">
+        <v>63513</v>
+      </c>
+      <c r="E69" t="n">
+        <v>16258566</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4890501000</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1251909582000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.3899999856948853</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -25918,13 +26032,29 @@
         <v>79300</v>
       </c>
       <c r="C70" t="n">
-        <v>1626062</v>
+        <v>1637267</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B71" t="n">
+        <v>74100</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1557358</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -25937,7 +26067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H227"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31821,11 +31951,21 @@
       <c r="C226" t="n">
         <v>30892</v>
       </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="D226" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E226" t="n">
+        <v>11586575</v>
+      </c>
+      <c r="F226" t="n">
+        <v>670697000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1916419505000</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.02999999932944775</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -31843,6 +31983,22 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
     </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45988</v>
+      </c>
+      <c r="B228" t="n">
+        <v>175400</v>
+      </c>
+      <c r="C228" t="n">
+        <v>33951</v>
+      </c>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/b_list_8.xlsx
+++ b/b_list_8.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,11 +6344,21 @@
       <c r="C227" t="n">
         <v>115530</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>22031</v>
+      </c>
+      <c r="E227" t="n">
+        <v>46290951</v>
+      </c>
+      <c r="F227" t="n">
+        <v>36373181000</v>
+      </c>
+      <c r="G227" t="n">
+        <v>76426360101000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.05000000074505806</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -6358,13 +6368,29 @@
         <v>1646000</v>
       </c>
       <c r="C228" t="n">
-        <v>62049</v>
+        <v>70847</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1607000</v>
+      </c>
+      <c r="C229" t="n">
+        <v>50331</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6377,7 +6403,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12287,11 +12313,21 @@
       <c r="C227" t="n">
         <v>687332</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>2821459</v>
+      </c>
+      <c r="E227" t="n">
+        <v>230960969</v>
+      </c>
+      <c r="F227" t="n">
+        <v>528741416600</v>
+      </c>
+      <c r="G227" t="n">
+        <v>43282085590600</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.220000028610229</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -12308,6 +12344,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>185600</v>
+      </c>
+      <c r="C229" t="n">
+        <v>462815</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12320,7 +12372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18230,11 +18282,21 @@
       <c r="C227" t="n">
         <v>886714</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>568795</v>
+      </c>
+      <c r="E227" t="n">
+        <v>78313250</v>
+      </c>
+      <c r="F227" t="n">
+        <v>80029456500</v>
+      </c>
+      <c r="G227" t="n">
+        <v>11018674275000</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.7300000190734863</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -18251,6 +18313,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>139800</v>
+      </c>
+      <c r="C229" t="n">
+        <v>490024</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18263,7 +18341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24173,11 +24251,21 @@
       <c r="C227" t="n">
         <v>1274014</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>1137990</v>
+      </c>
+      <c r="E227" t="n">
+        <v>52240638</v>
+      </c>
+      <c r="F227" t="n">
+        <v>52745836500</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2421353571300</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2.180000066757202</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -24194,6 +24282,22 @@
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>46800</v>
+      </c>
+      <c r="C229" t="n">
+        <v>758690</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -24206,7 +24310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26034,11 +26138,21 @@
       <c r="C70" t="n">
         <v>1637267</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="D70" t="n">
+        <v>48808</v>
+      </c>
+      <c r="E70" t="n">
+        <v>16258566</v>
+      </c>
+      <c r="F70" t="n">
+        <v>3870474400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1289304283800</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.300000011920929</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -26048,13 +26162,29 @@
         <v>74100</v>
       </c>
       <c r="C71" t="n">
-        <v>1557358</v>
+        <v>1581393</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B72" t="n">
+        <v>84200</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3669694</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26067,7 +26197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H228"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31977,11 +32107,21 @@
       <c r="C227" t="n">
         <v>56894</v>
       </c>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="D227" t="n">
+        <v>5838</v>
+      </c>
+      <c r="E227" t="n">
+        <v>11586575</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1023401400</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2031126597500</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.05000000074505806</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -31999,6 +32139,22 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
     </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B229" t="n">
+        <v>176300</v>
+      </c>
+      <c r="C229" t="n">
+        <v>21694</v>
+      </c>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
